--- a/biology/Botanique/Tetrapollinia_caerulescens/Tetrapollinia_caerulescens.xlsx
+++ b/biology/Botanique/Tetrapollinia_caerulescens/Tetrapollinia_caerulescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tetrapollinia caerulescens est une espèce de plante herbacées du nord-ouest de l'Amérique du Sud, appartenant à la famille des Gentianaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tetrapollinia caerulescens est une herbacée annuelle non ramifiée (parfois avec des inflorescences ramifiées), atteignant jusqu'à 60 cm de haut. 
 Les tiges et branches cylindriques à quadrangulaires à 4 ailes étroites, atteignent jusqu'à 0,3 cm de diamètre, avec des entrenœuds longs de 1 à 6,8 cm. 
@@ -527,7 +541,7 @@
 L'exine du pollen est réticulé avec de grandes épines.
 Le pistil est long de 5-21 mm, avec les ovaires mesurant 1-5 x 0,8-3 mm, le style long de 2-11 mm, et le lobe du stigmate linéaire (moins souvent ovale) mesurant 1,5-4,5 mm. 
 Les fruit sont dressé à noueux, de couleur verte à brune, de couleur ovoïde, et mesurant 3-9 x 2-5 mm.
-Les graines sont brunes, et atteignant 0,3-0,4 mm de diamètre[3].
+Les graines sont brunes, et atteignant 0,3-0,4 mm de diamètre.
 </t>
         </is>
       </c>
@@ -556,9 +570,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Tetrapollinia caerulescens du Venezuela au Paraguay en passant par les Guyanes, le Brésil], le Pérou, et la Bolivie[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Tetrapollinia caerulescens du Venezuela au Paraguay en passant par les Guyanes, le Brésil], le Pérou, et la Bolivie.
 </t>
         </is>
       </c>
@@ -587,13 +603,15 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Tetrapollinia caerulescens fleurit et fructifie toute l'année souvent dans des zones humides, sur sable blanc ou dans les savanes argileuses, plus rarement sur des argiles gris foncé à noires (loameux), ou dans le lit de cours d'eau, à 10-1 550 m d'altitude[3],[4],[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tetrapollinia caerulescens fleurit et fructifie toute l'année souvent dans des zones humides, sur sable blanc ou dans les savanes argileuses, plus rarement sur des argiles gris foncé à noires (loameux), ou dans le lit de cours d'eau, à 10-1 550 m d'altitude.
 Tetrapollinia caerulescens a été étudié sous divers aspects : 
-sa phylogénie[6],[7],[8],[9],[10],[11],[12]
-ses nectaires extrafloraux[13],[14]
-la morphologie de son pollen[15],[16]</t>
+sa phylogénie
+ses nectaires extrafloraux,
+la morphologie de son pollen,</t>
         </is>
       </c>
     </row>
@@ -621,7 +639,9 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Aucun usage n'a été recensé.
 </t>
@@ -652,9 +672,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet a décrit cette plante pour la première fois sous le nom de Lisianthus caerulescens, et en a proposé le protologue suivant[17] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet a décrit cette plante pour la première fois sous le nom de Lisianthus caerulescens, et en a proposé le protologue suivant : 
 « 4. LISYANTHUS (cæruleſcens) caule quadrangulari, marginato, foliis lanceolatis ; laciniis corollæ acutis. (TABULA 82.) 
 Planta annua. Radix fibroſa, tenuis. Caulis pedalis, tetragonus; angulis acutis, alatis, membranaceis. Folia ſeſſilia, anguſto-lanceolata, acuta, glabra, glauca, integerrima. Flores terminales, in ramulo dichotomo inſidentes. Calix ; perianthium monophyllum, in quinque partes profundè ſectum. Corolla ſubcærulea ; limbus quinquefidus ; laciniis ovatis, oblongis, acutis. Stamina ; filamenta quinque, inaquælia, quorum unum abortivum.
 Habitat in pratis humidis Guianæ versus Courou.
